--- a/dist/data/profiles/xlsx/bluff/profile 25-15 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 25-15 graph.xlsx
@@ -5136,11 +5136,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90251816"/>
-        <c:axId val="70931585"/>
+        <c:axId val="43469855"/>
+        <c:axId val="63974378"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90251816"/>
+        <c:axId val="43469855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5175,12 +5175,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70931585"/>
+        <c:crossAx val="63974378"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70931585"/>
+        <c:axId val="63974378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5224,7 +5224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90251816"/>
+        <c:crossAx val="43469855"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
